--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2540.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2540.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.449725015427932</v>
+        <v>1.803869605064392</v>
       </c>
       <c r="B1">
-        <v>2.774184024773221</v>
+        <v>2.31618857383728</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.512256383895874</v>
       </c>
       <c r="D1">
-        <v>1.320504910166238</v>
+        <v>6.231607437133789</v>
       </c>
       <c r="E1">
-        <v>1.148422078840156</v>
+        <v>0.7722772359848022</v>
       </c>
     </row>
   </sheetData>
